--- a/CSProjects/CMPSC380/Lab3/lab3 Result Analysis Compilation.xlsx
+++ b/CSProjects/CMPSC380/Lab3/lab3 Result Analysis Compilation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1Name" sheetId="5" r:id="rId1"/>
@@ -796,11 +796,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62659584"/>
-        <c:axId val="85239296"/>
+        <c:axId val="55319552"/>
+        <c:axId val="76649984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62659584"/>
+        <c:axId val="55319552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,13 +826,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85239296"/>
+        <c:crossAx val="76649984"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85239296"/>
+        <c:axId val="76649984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +858,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62659584"/>
+        <c:crossAx val="55319552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,7 +871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1047,11 +1047,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67150592"/>
-        <c:axId val="67153280"/>
+        <c:axId val="76667136"/>
+        <c:axId val="76759424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67150592"/>
+        <c:axId val="76667136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,13 +1077,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67153280"/>
+        <c:crossAx val="76759424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67153280"/>
+        <c:axId val="76759424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67150592"/>
+        <c:crossAx val="76667136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,7 +1122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1284,11 +1284,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86951808"/>
-        <c:axId val="86962176"/>
+        <c:axId val="76736384"/>
+        <c:axId val="76808192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86951808"/>
+        <c:axId val="76736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,13 +1314,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86962176"/>
+        <c:crossAx val="76808192"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86962176"/>
+        <c:axId val="76808192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1346,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86951808"/>
+        <c:crossAx val="76736384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,7 +1359,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1545,11 +1545,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67595264"/>
-        <c:axId val="67762432"/>
+        <c:axId val="76842112"/>
+        <c:axId val="76844032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67595264"/>
+        <c:axId val="76842112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,13 +1575,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67762432"/>
+        <c:crossAx val="76844032"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67762432"/>
+        <c:axId val="76844032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -1608,7 +1608,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67595264"/>
+        <c:crossAx val="76842112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,7 +1621,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1662,7 +1662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1783,11 +1782,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87142784"/>
-        <c:axId val="87144704"/>
+        <c:axId val="77255040"/>
+        <c:axId val="77256960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87142784"/>
+        <c:axId val="77255040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,18 +1807,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87144704"/>
+        <c:crossAx val="77256960"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87144704"/>
+        <c:axId val="77256960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,24 +1839,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87142784"/>
+        <c:crossAx val="77255040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1898,7 +1894,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2034,11 +2029,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="103591936"/>
-        <c:axId val="67113344"/>
+        <c:axId val="77335552"/>
+        <c:axId val="77350016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103591936"/>
+        <c:axId val="77335552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,18 +2054,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67113344"/>
+        <c:crossAx val="77350016"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67113344"/>
+        <c:axId val="77350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14028"/>
@@ -2093,24 +2087,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103591936"/>
+        <c:crossAx val="77335552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2272,11 +2264,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89458560"/>
-        <c:axId val="89460736"/>
+        <c:axId val="78509952"/>
+        <c:axId val="78520320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89458560"/>
+        <c:axId val="78509952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,13 +2294,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89460736"/>
+        <c:crossAx val="78520320"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89460736"/>
+        <c:axId val="78520320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2326,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89458560"/>
+        <c:crossAx val="78509952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2347,7 +2339,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2538,11 +2530,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65585536"/>
-        <c:axId val="65587840"/>
+        <c:axId val="78550144"/>
+        <c:axId val="78552064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65585536"/>
+        <c:axId val="78550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,13 +2560,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65587840"/>
+        <c:crossAx val="78552064"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65587840"/>
+        <c:axId val="78552064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -2601,7 +2593,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65585536"/>
+        <c:crossAx val="78550144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,7 +2606,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3085,8 +3077,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3571,7 +3563,7 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3736,7 +3728,7 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4066,7 +4058,7 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
